--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H2">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N2">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O2">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P2">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q2">
-        <v>77.57480319239056</v>
+        <v>154.73804949986</v>
       </c>
       <c r="R2">
-        <v>77.57480319239056</v>
+        <v>1392.64244549874</v>
       </c>
       <c r="S2">
-        <v>0.04188930895286771</v>
+        <v>0.07141929579980999</v>
       </c>
       <c r="T2">
-        <v>0.04188930895286771</v>
+        <v>0.07141929579981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H3">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N3">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O3">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P3">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q3">
-        <v>18.64691523444803</v>
+        <v>31.912707972666</v>
       </c>
       <c r="R3">
-        <v>18.64691523444803</v>
+        <v>287.214371753994</v>
       </c>
       <c r="S3">
-        <v>0.01006907347655829</v>
+        <v>0.01472929985765944</v>
       </c>
       <c r="T3">
-        <v>0.01006907347655829</v>
+        <v>0.01472929985765945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H4">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I4">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J4">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N4">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O4">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P4">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q4">
-        <v>165.1889742597844</v>
+        <v>285.29093463066</v>
       </c>
       <c r="R4">
-        <v>165.1889742597844</v>
+        <v>2567.61841167594</v>
       </c>
       <c r="S4">
-        <v>0.08919973617224955</v>
+        <v>0.1316759369479437</v>
       </c>
       <c r="T4">
-        <v>0.08919973617224955</v>
+        <v>0.1316759369479438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H5">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N5">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O5">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P5">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q5">
-        <v>390.7320718434927</v>
+        <v>459.9147739016011</v>
       </c>
       <c r="R5">
-        <v>390.7320718434927</v>
+        <v>4139.23296511441</v>
       </c>
       <c r="S5">
-        <v>0.2109898549746071</v>
+        <v>0.2122735124692838</v>
       </c>
       <c r="T5">
-        <v>0.2109898549746071</v>
+        <v>0.2122735124692838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H6">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J6">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N6">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O6">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P6">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q6">
-        <v>93.92157663586001</v>
+        <v>94.85143388633567</v>
       </c>
       <c r="R6">
-        <v>93.92157663586001</v>
+        <v>853.6629049770211</v>
       </c>
       <c r="S6">
-        <v>0.05071633802644187</v>
+        <v>0.04377864808080354</v>
       </c>
       <c r="T6">
-        <v>0.05071633802644187</v>
+        <v>0.04377864808080354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H7">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J7">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N7">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O7">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P7">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q7">
-        <v>832.0308592746549</v>
+        <v>847.9460360326901</v>
       </c>
       <c r="R7">
-        <v>832.0308592746549</v>
+        <v>7631.51432429421</v>
       </c>
       <c r="S7">
-        <v>0.4492850292644354</v>
+        <v>0.3913692137482309</v>
       </c>
       <c r="T7">
-        <v>0.4492850292644354</v>
+        <v>0.3913692137482309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H8">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I8">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J8">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.48119582337983</v>
+        <v>8.798756666666666</v>
       </c>
       <c r="N8">
-        <v>7.48119582337983</v>
+        <v>26.39627</v>
       </c>
       <c r="O8">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="P8">
-        <v>0.2967545144964158</v>
+        <v>0.3278753542842912</v>
       </c>
       <c r="Q8">
-        <v>81.25275327918088</v>
+        <v>95.72652482450889</v>
       </c>
       <c r="R8">
-        <v>81.25275327918088</v>
+        <v>861.53872342058</v>
       </c>
       <c r="S8">
-        <v>0.04387535056894104</v>
+        <v>0.04418254601519738</v>
       </c>
       <c r="T8">
-        <v>0.04387535056894104</v>
+        <v>0.04418254601519739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H9">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I9">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J9">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.798280093923</v>
+        <v>1.814629</v>
       </c>
       <c r="N9">
-        <v>1.798280093923</v>
+        <v>5.443887</v>
       </c>
       <c r="O9">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="P9">
-        <v>0.07133187645389014</v>
+        <v>0.06762002278384967</v>
       </c>
       <c r="Q9">
-        <v>19.53099641393644</v>
+        <v>19.74234935645534</v>
       </c>
       <c r="R9">
-        <v>19.53099641393644</v>
+        <v>177.681144208098</v>
       </c>
       <c r="S9">
-        <v>0.01054646495088997</v>
+        <v>0.009112074845386672</v>
       </c>
       <c r="T9">
-        <v>0.01054646495088997</v>
+        <v>0.009112074845386673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H10">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I10">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J10">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.930572988188</v>
+        <v>16.22229</v>
       </c>
       <c r="N10">
-        <v>15.930572988188</v>
+        <v>48.66687</v>
       </c>
       <c r="O10">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="P10">
-        <v>0.6319136090496941</v>
+        <v>0.6045046229318591</v>
       </c>
       <c r="Q10">
-        <v>173.0208575158566</v>
+        <v>176.49123679922</v>
       </c>
       <c r="R10">
-        <v>173.0208575158566</v>
+        <v>1588.42113119298</v>
       </c>
       <c r="S10">
-        <v>0.09342884361300911</v>
+        <v>0.08145947223568441</v>
       </c>
       <c r="T10">
-        <v>0.09342884361300911</v>
+        <v>0.08145947223568442</v>
       </c>
     </row>
   </sheetData>
